--- a/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-44,08%</t>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -0,41</t>
+          <t>-27,91; 1,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 3,13</t>
+          <t>-6,26; 9,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 2,28</t>
+          <t>-2,5; 7,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,91</t>
+          <t>-3,02; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -3,17</t>
+          <t>-5,38; 7,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,83; -1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 31,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 29,45</t>
+          <t>-79,93; 23,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 78,06</t>
+          <t>-47,01; 156,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -20,38</t>
+          <t>-27,62; 137,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-30,36; 89,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-38,97; 134,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>74,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>59,65%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 9,45</t>
+          <t>0,86; 17,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,06</t>
+          <t>0,8; 15,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,38</t>
+          <t>3,32; 12,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 11,56</t>
+          <t>2,04; 11,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,15</t>
+          <t>1,46; 12,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 58,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 68,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 134,3</t>
+          <t>-0,43; 132,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 121,64</t>
+          <t>0,57; 121,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 73,73</t>
+          <t>22,88; 152,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 120,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 155,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>89,82%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 12,75</t>
+          <t>-5,96; 9,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 12,31</t>
+          <t>-1,23; 11,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,73</t>
+          <t>-4,78; 5,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,18</t>
+          <t>-3,1; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 7,39</t>
+          <t>0,27; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 129,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 123,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 89,39</t>
+          <t>-33,21; 105,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 88,12</t>
+          <t>-10,87; 140,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 102,95</t>
+          <t>-35,58; 89,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; 101,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 279,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,1</t>
+          <t>-1,3; 6,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,75</t>
+          <t>-6,55; 3,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,48</t>
+          <t>-4,46; 6,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,42</t>
+          <t>-1,04; 8,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 41,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 50,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 59,87</t>
+          <t>-7,04; 44,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 77,19</t>
+          <t>-32,62; 26,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 18,02</t>
+          <t>-29,18; 71,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 125,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,26%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50,41%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 6,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 6,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 6,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 6,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 7,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 41,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 50,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 67,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 72,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,74; 92,28</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
